--- a/跟踪BUG.xlsx
+++ b/跟踪BUG.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spzhong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangfeng/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017-5-4" sheetId="8" r:id="rId1"/>
@@ -25,14 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2017-5-10'!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2017-5-11'!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2017-5-12'!$A$2:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017-5-4'!$A$2:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017-5-6'!$A$2:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017-5-7'!$A$2:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017-5-4'!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017-5-6'!$A$2:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017-5-7'!$A$2:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2017-5-8'!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2017-5-9'!$A$2:$H$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="79">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -273,9 +276,6 @@
     <t>接口</t>
   </si>
   <si>
-    <t>普通用户信息绑定失败（提示“信息校验错误”）具体的请求信息已经给毕东了</t>
-  </si>
-  <si>
     <t xml:space="preserve">企业用户信息绑定失败（提示“系统繁忙，请稍后再试”）具体的请求信息已经给毕东了 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zhuming005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>普通账户-充值</t>
     <rPh sb="0" eb="1">
       <t>pu'tong</t>
@@ -481,9 +477,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修复中</t>
-  </si>
-  <si>
     <t>zhuming005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,13 +628,310 @@
       <t>zhong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户信息绑定失败（提示“信息校验错误”）具体的请求信息已经给毕东了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非问题</t>
+  </si>
+  <si>
+    <t>test330</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱明</t>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户签约，跳转H5成功，绑定后提示“系统繁忙请稍后再试试”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>存管账户-签约</t>
+    <rPh sb="0" eb="1">
+      <t>cun'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户，签约跳转H5，成功后发的回调接口</t>
+    <rPh sb="0" eb="1">
+      <t>cung'guan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>je'kou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天新的问题</t>
+    <rPh sb="0" eb="1">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天未完成的问题</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户，充值跳转H5，成功后发的回调接口</t>
+    <rPh sb="5" eb="6">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户，提现跳转H5，成功后发的回调接口</t>
+    <rPh sb="5" eb="6">
+      <t>ti'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值，存管账户，绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户-充值</t>
+    <rPh sb="5" eb="6">
+      <t>chong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管账户-提现</t>
+    <rPh sb="0" eb="1">
+      <t>cung'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>存管投标，跳转H5确认成功后发的回调接口</t>
+    <rPh sb="0" eb="1">
+      <t>cun'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存管投标-确认页面</t>
+    <rPh sb="0" eb="1">
+      <t>cun'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye'mian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有中文需要URLINCODING</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'wen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'yao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中文乱码的问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'wen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luan'ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值，提现，银行卡管理三个接口绑卡接口修改（存管账户类型）</t>
+    <rPh sb="0" eb="1">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin'hang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bang'ka</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cun'guan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhang'hu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已开通；2.未开通；3未绑定；4已绑定</t>
+    <rPh sb="2" eb="3">
+      <t>y'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kia'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei'bang'ding</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bang'ding</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择省市区的接口变化了</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'shi'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋培众</t>
+  </si>
+  <si>
+    <t>今天新的问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,6 +960,22 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -691,9 +997,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -978,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -992,8 +1310,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1023,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.15">
@@ -1031,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1049,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -1060,22 +1378,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -1089,22 +1407,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
@@ -1118,22 +1436,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -1147,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -1176,22 +1494,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>123456</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
@@ -1205,16 +1523,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>123456</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1234,22 +1552,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
@@ -1263,22 +1581,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>123456</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -1292,25 +1610,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>123456</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
@@ -1321,22 +1639,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>123456</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
@@ -1350,22 +1668,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>123456</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -1375,7 +1693,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H3"/>
+  <autoFilter ref="A2:H14"/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
@@ -1409,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1422,15 +1740,17 @@
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="43.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,55 +1776,341 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="I4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H3"/>
+  <autoFilter ref="A2:H14"/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F355:F1048576 F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F359:F1048576 F1">
       <formula1>"问题类型,Android,IOS,接口,UI,产品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F354">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F8:F358">
       <formula1>"Android,IOS,接口,UI,产品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G414:G451">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G418:G455">
       <formula1>"未修复，已修复，修复中，非问题，测试中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G413">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6 G8:G417">
       <formula1>"未修复,已修复,修复中,非问题,测试中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1931">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6 H8:H1935">
       <formula1>"yy,毕东,测试,产品,朱明,丰媛媛"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 I8:I133">
       <formula1>"宋培众,小猪,毕东,朱明"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I130:I628">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I134:I632">
       <formula1>"Android,ios,后台"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1514,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1530,8 +2136,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1561,55 +2167,200 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H3"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1931">
-      <formula1>"yy,毕东,测试,产品,朱明,丰媛媛"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G413">
-      <formula1>"未修复,已修复,修复中,非问题,测试中"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G414:G451">
       <formula1>"未修复，已修复，修复中，非问题，测试中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F354">
-      <formula1>"Android,IOS,接口,UI,产品"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F355:F1048576 F1">
       <formula1>"问题类型,Android,IOS,接口,UI,产品"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I130:I628">
       <formula1>"Android,ios,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H1931">
+      <formula1>"yy,毕东,测试,产品,朱明,丰媛媛"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G413">
+      <formula1>"未修复,已修复,修复中,非问题,测试中"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F354">
+      <formula1>"Android,IOS,接口,UI,产品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I129">
       <formula1>"宋培众,小猪,毕东,朱明"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1635,8 +2386,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1666,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1740,8 +2491,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1771,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1845,8 +2596,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1876,7 +2627,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1950,8 +2701,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1981,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2055,8 +2806,8 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2086,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
